--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N2">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O2">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P2">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q2">
-        <v>66.462664574334</v>
+        <v>41.6662732703</v>
       </c>
       <c r="R2">
-        <v>265.850658297336</v>
+        <v>166.6650930812</v>
       </c>
       <c r="S2">
-        <v>0.003831866023977466</v>
+        <v>0.0008898687168716003</v>
       </c>
       <c r="T2">
-        <v>0.001821459542485382</v>
+        <v>0.000409301191716614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.715908</v>
       </c>
       <c r="O3">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P3">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q3">
-        <v>36.877463840698</v>
+        <v>24.48275998031066</v>
       </c>
       <c r="R3">
-        <v>221.264783044188</v>
+        <v>146.896559881864</v>
       </c>
       <c r="S3">
-        <v>0.002126148592546769</v>
+        <v>0.0005228795497936682</v>
       </c>
       <c r="T3">
-        <v>0.001515982142278685</v>
+        <v>0.0003607530281666404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N4">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O4">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P4">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q4">
-        <v>435.0233494167097</v>
+        <v>603.119670677934</v>
       </c>
       <c r="R4">
-        <v>2610.140096500258</v>
+        <v>3618.718024067604</v>
       </c>
       <c r="S4">
-        <v>0.0250810165819096</v>
+        <v>0.0128808574739694</v>
       </c>
       <c r="T4">
-        <v>0.0178832153978599</v>
+        <v>0.0088869575047466</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N5">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O5">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P5">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q5">
-        <v>38.132725072749</v>
+        <v>32.157481804068</v>
       </c>
       <c r="R5">
-        <v>152.530900290996</v>
+        <v>128.629927216272</v>
       </c>
       <c r="S5">
-        <v>0.00219851994414873</v>
+        <v>0.000686788974026277</v>
       </c>
       <c r="T5">
-        <v>0.001045056144070887</v>
+        <v>0.0003158932775106718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N6">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O6">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P6">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q6">
-        <v>50.81513253980051</v>
+        <v>265.684327584521</v>
       </c>
       <c r="R6">
-        <v>304.890795238803</v>
+        <v>1594.105965507126</v>
       </c>
       <c r="S6">
-        <v>0.002929716723370243</v>
+        <v>0.005674233693682807</v>
       </c>
       <c r="T6">
-        <v>0.002088940655480932</v>
+        <v>0.003914853790569955</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N7">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O7">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P7">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q7">
-        <v>338.4207554847405</v>
+        <v>274.3928770804903</v>
       </c>
       <c r="R7">
-        <v>2030.524532908443</v>
+        <v>1646.357262482942</v>
       </c>
       <c r="S7">
-        <v>0.01951145057237961</v>
+        <v>0.005860222628078697</v>
       </c>
       <c r="T7">
-        <v>0.01391201477703401</v>
+        <v>0.004043174110833542</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N8">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O8">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P8">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q8">
-        <v>571.6952302144533</v>
+        <v>539.8488106013333</v>
       </c>
       <c r="R8">
-        <v>3430.17138128672</v>
+        <v>3239.092863608</v>
       </c>
       <c r="S8">
-        <v>0.03296075387225311</v>
+        <v>0.0115295784981302</v>
       </c>
       <c r="T8">
-        <v>0.02350160964362587</v>
+        <v>0.007954662518981198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.715908</v>
       </c>
       <c r="O9">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P9">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q9">
         <v>317.2107274837511</v>
@@ -1013,10 +1013,10 @@
         <v>2854.89654735376</v>
       </c>
       <c r="S9">
-        <v>0.0182885988226773</v>
+        <v>0.00677468563633409</v>
       </c>
       <c r="T9">
-        <v>0.01956014926684943</v>
+        <v>0.007011141550139932</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N10">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O10">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P10">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q10">
-        <v>3741.96212996085</v>
+        <v>7814.31626374504</v>
       </c>
       <c r="R10">
-        <v>33677.65916964765</v>
+        <v>70328.84637370535</v>
       </c>
       <c r="S10">
-        <v>0.2157406363503598</v>
+        <v>0.1668907497854946</v>
       </c>
       <c r="T10">
-        <v>0.2307404241764848</v>
+        <v>0.1727157144945028</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N11">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O11">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P11">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q11">
-        <v>328.0081708849866</v>
+        <v>416.64821308208</v>
       </c>
       <c r="R11">
-        <v>1968.04902530992</v>
+        <v>2499.88927849248</v>
       </c>
       <c r="S11">
-        <v>0.01891111910199501</v>
+        <v>0.008898377072433725</v>
       </c>
       <c r="T11">
-        <v>0.01348396765382668</v>
+        <v>0.006139303929395983</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N12">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O12">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P12">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q12">
-        <v>437.0990703092845</v>
+        <v>3442.337338678094</v>
       </c>
       <c r="R12">
-        <v>3933.89163278356</v>
+        <v>30981.03604810284</v>
       </c>
       <c r="S12">
-        <v>0.02520069105500603</v>
+        <v>0.07351817357738505</v>
       </c>
       <c r="T12">
-        <v>0.02695281817065494</v>
+        <v>0.07608416820027115</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N13">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O13">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P13">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q13">
-        <v>2911.010760030707</v>
+        <v>3555.169606084475</v>
       </c>
       <c r="R13">
-        <v>26199.09684027636</v>
+        <v>31996.52645476027</v>
       </c>
       <c r="S13">
-        <v>0.1678326214911052</v>
+        <v>0.07592793804965428</v>
       </c>
       <c r="T13">
-        <v>0.1795015112990532</v>
+        <v>0.07857804034792702</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N14">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O14">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P14">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q14">
-        <v>397.8279864142266</v>
+        <v>591.7714380059999</v>
       </c>
       <c r="R14">
-        <v>2386.96791848536</v>
+        <v>3550.628628036</v>
       </c>
       <c r="S14">
-        <v>0.02293653969926348</v>
+        <v>0.01263849269176238</v>
       </c>
       <c r="T14">
-        <v>0.01635416485547666</v>
+        <v>0.008719741500340553</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.715908</v>
       </c>
       <c r="O15">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P15">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q15">
-        <v>220.7387753375422</v>
+        <v>347.72003692088</v>
       </c>
       <c r="R15">
-        <v>1986.64897803788</v>
+        <v>3129.48033228792</v>
       </c>
       <c r="S15">
-        <v>0.0127265648888378</v>
+        <v>0.007426274509313729</v>
       </c>
       <c r="T15">
-        <v>0.01361140409352971</v>
+        <v>0.007685472739244146</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N16">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O16">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P16">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q16">
-        <v>2603.935070163508</v>
+        <v>8565.896750386681</v>
       </c>
       <c r="R16">
-        <v>23435.41563147158</v>
+        <v>77093.07075348012</v>
       </c>
       <c r="S16">
-        <v>0.1501283523299504</v>
+        <v>0.1829422924549048</v>
       </c>
       <c r="T16">
-        <v>0.1605663183512333</v>
+        <v>0.1893275019329888</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N17">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O17">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P17">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q17">
-        <v>228.2524381069933</v>
+        <v>456.72141413736</v>
       </c>
       <c r="R17">
-        <v>1369.51462864196</v>
+        <v>2740.32848482416</v>
       </c>
       <c r="S17">
-        <v>0.01315976071789884</v>
+        <v>0.009754222465004944</v>
       </c>
       <c r="T17">
-        <v>0.009383145804074988</v>
+        <v>0.006729781826522329</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N18">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O18">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P18">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q18">
-        <v>304.1659853265589</v>
+        <v>3773.42114497242</v>
       </c>
       <c r="R18">
-        <v>2737.49386793903</v>
+        <v>33960.79030475178</v>
       </c>
       <c r="S18">
-        <v>0.01753651184897817</v>
+        <v>0.08058914726329194</v>
       </c>
       <c r="T18">
-        <v>0.01875577198186208</v>
+        <v>0.08340193910071317</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N19">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O19">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P19">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q19">
-        <v>2025.697413390604</v>
+        <v>3897.105613337139</v>
       </c>
       <c r="R19">
-        <v>18231.27672051543</v>
+        <v>35073.95052003425</v>
       </c>
       <c r="S19">
-        <v>0.1167903986838956</v>
+        <v>0.0832306827432388</v>
       </c>
       <c r="T19">
-        <v>0.1249104785632468</v>
+        <v>0.08613567172740461</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N20">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O20">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P20">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q20">
-        <v>40.92404332433199</v>
+        <v>25.2100088086</v>
       </c>
       <c r="R20">
-        <v>163.696173297328</v>
+        <v>100.8400352344</v>
       </c>
       <c r="S20">
-        <v>0.002359451764123933</v>
+        <v>0.0005384114399984375</v>
       </c>
       <c r="T20">
-        <v>0.001121554329902318</v>
+        <v>0.0002476460177181578</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.715908</v>
       </c>
       <c r="O21">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P21">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q21">
-        <v>22.70710838293733</v>
+        <v>14.81319413326133</v>
       </c>
       <c r="R21">
-        <v>136.242650297624</v>
+        <v>88.879164799568</v>
       </c>
       <c r="S21">
-        <v>0.001309165042849523</v>
+        <v>0.0003163661403222077</v>
       </c>
       <c r="T21">
-        <v>0.0009334581944143817</v>
+        <v>0.0002182721492467341</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N22">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O22">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P22">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q22">
-        <v>267.8633863484977</v>
+        <v>364.9150984009081</v>
       </c>
       <c r="R22">
-        <v>1607.180318090986</v>
+        <v>2189.490590405448</v>
       </c>
       <c r="S22">
-        <v>0.0154435067536057</v>
+        <v>0.007793510311673521</v>
       </c>
       <c r="T22">
-        <v>0.0110114977545303</v>
+        <v>0.005377017414610323</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N23">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O23">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P23">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q23">
-        <v>23.480029020002</v>
+        <v>19.456753290216</v>
       </c>
       <c r="R23">
-        <v>93.92011608000799</v>
+        <v>77.82701316086401</v>
       </c>
       <c r="S23">
-        <v>0.00135372732977208</v>
+        <v>0.0004155388693519972</v>
       </c>
       <c r="T23">
-        <v>0.0006434879370279127</v>
+        <v>0.0001911299399626921</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N24">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O24">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P24">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q24">
-        <v>31.28915608348233</v>
+        <v>160.751219463802</v>
       </c>
       <c r="R24">
-        <v>187.734936500894</v>
+        <v>964.507316782812</v>
       </c>
       <c r="S24">
-        <v>0.001803957979763637</v>
+        <v>0.003433171967932244</v>
       </c>
       <c r="T24">
-        <v>0.001286254447280664</v>
+        <v>0.002368666328865056</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N25">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O25">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P25">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q25">
-        <v>208.380836790269</v>
+        <v>166.0202918399007</v>
       </c>
       <c r="R25">
-        <v>1250.285020741614</v>
+        <v>996.121751039404</v>
       </c>
       <c r="S25">
-        <v>0.01201407517526733</v>
+        <v>0.003545703814589255</v>
       </c>
       <c r="T25">
-        <v>0.008566251430189393</v>
+        <v>0.002446306015601169</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N26">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O26">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P26">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q26">
-        <v>37.25254284827599</v>
+        <v>67.02733744256666</v>
       </c>
       <c r="R26">
-        <v>223.515257089656</v>
+        <v>402.1640246553999</v>
       </c>
       <c r="S26">
-        <v>0.002147773553186706</v>
+        <v>0.001431506253952698</v>
       </c>
       <c r="T26">
-        <v>0.001531401127702631</v>
+        <v>0.0009876466122201609</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.715908</v>
       </c>
       <c r="O27">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P27">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q27">
-        <v>20.66994019363866</v>
+        <v>39.38471300468755</v>
       </c>
       <c r="R27">
-        <v>186.029461742748</v>
+        <v>354.462417042188</v>
       </c>
       <c r="S27">
-        <v>0.001191713303294745</v>
+        <v>0.0008411413182666239</v>
       </c>
       <c r="T27">
-        <v>0.001274569491175652</v>
+        <v>0.0008704995571174247</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N28">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O28">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P28">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q28">
-        <v>243.8320231055663</v>
+        <v>970.221296791502</v>
       </c>
       <c r="R28">
-        <v>2194.488207950097</v>
+        <v>8731.991671123518</v>
       </c>
       <c r="S28">
-        <v>0.01405799257191865</v>
+        <v>0.0207210655691823</v>
       </c>
       <c r="T28">
-        <v>0.01503540187879386</v>
+        <v>0.0214442900488414</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N29">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O29">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P29">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q29">
-        <v>21.373518257086</v>
+        <v>51.730817637604</v>
       </c>
       <c r="R29">
-        <v>128.241109542516</v>
+        <v>310.384905825624</v>
       </c>
       <c r="S29">
-        <v>0.001232277684723124</v>
+        <v>0.001104817702683924</v>
       </c>
       <c r="T29">
-        <v>0.000878636126805745</v>
+        <v>0.0007622526678899823</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N30">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O30">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P30">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q30">
-        <v>28.48204949957367</v>
+        <v>427.3987491677796</v>
       </c>
       <c r="R30">
-        <v>256.338445496163</v>
+        <v>3846.588742510016</v>
       </c>
       <c r="S30">
-        <v>0.001642115892729454</v>
+        <v>0.009127976818256982</v>
       </c>
       <c r="T30">
-        <v>0.001756287197651576</v>
+        <v>0.009446569328023596</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N31">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O31">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P31">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q31">
-        <v>189.685950378067</v>
+        <v>441.4079426925987</v>
       </c>
       <c r="R31">
-        <v>1707.173553402603</v>
+        <v>3972.671484233388</v>
       </c>
       <c r="S31">
-        <v>0.010936232441699</v>
+        <v>0.009427171876703036</v>
       </c>
       <c r="T31">
-        <v>0.01169659529692054</v>
+        <v>0.0097562071501267</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H32">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I32">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J32">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N32">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O32">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P32">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q32">
-        <v>79.51918404287198</v>
+        <v>305.9076746343333</v>
       </c>
       <c r="R32">
-        <v>477.115104257232</v>
+        <v>1835.446047806</v>
       </c>
       <c r="S32">
-        <v>0.004584632011668721</v>
+        <v>0.006533285761893848</v>
       </c>
       <c r="T32">
-        <v>0.003268924986227696</v>
+        <v>0.004507544086226457</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H33">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I33">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J33">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.715908</v>
       </c>
       <c r="O33">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P33">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q33">
-        <v>44.12200222431733</v>
+        <v>179.7488372819244</v>
       </c>
       <c r="R33">
-        <v>397.0980200188559</v>
+        <v>1617.73953553732</v>
       </c>
       <c r="S33">
-        <v>0.002543828212667081</v>
+        <v>0.003838905057660716</v>
       </c>
       <c r="T33">
-        <v>0.002720692822420761</v>
+        <v>0.003972893828822978</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H34">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I34">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J34">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N34">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O34">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P34">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q34">
-        <v>520.4832217721928</v>
+        <v>4428.01627077178</v>
       </c>
       <c r="R34">
-        <v>4684.348995949735</v>
+        <v>39852.14643694602</v>
       </c>
       <c r="S34">
-        <v>0.03000815550102671</v>
+        <v>0.09456936864970267</v>
       </c>
       <c r="T34">
-        <v>0.03209453094323958</v>
+        <v>0.09787011021654045</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H35">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I35">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J35">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N35">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O35">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P35">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q35">
-        <v>45.623858184692</v>
+        <v>236.09552063756</v>
       </c>
       <c r="R35">
-        <v>273.743149108152</v>
+        <v>1416.57312382536</v>
       </c>
       <c r="S35">
-        <v>0.002630416838993238</v>
+        <v>0.005042304039191199</v>
       </c>
       <c r="T35">
-        <v>0.001875534461063392</v>
+        <v>0.003478863252144604</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H36">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I36">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J36">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N36">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O36">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P36">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q36">
-        <v>60.79771105288734</v>
+        <v>1950.615412876403</v>
       </c>
       <c r="R36">
-        <v>547.1793994759861</v>
+        <v>17555.53871588763</v>
       </c>
       <c r="S36">
-        <v>0.003505256444520043</v>
+        <v>0.04165939255727907</v>
       </c>
       <c r="T36">
-        <v>0.003748966224158275</v>
+        <v>0.04311342456178962</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H37">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I37">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J37">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N37">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O37">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P37">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q37">
-        <v>404.903151441074</v>
+        <v>2014.552307555412</v>
       </c>
       <c r="R37">
-        <v>3644.128362969666</v>
+        <v>18130.97076799871</v>
       </c>
       <c r="S37">
-        <v>0.02334445419763705</v>
+        <v>0.04302489606798828</v>
       </c>
       <c r="T37">
-        <v>0.02496752283136718</v>
+        <v>0.04452658805227681</v>
       </c>
     </row>
   </sheetData>
